--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,124 +20,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>taskforce</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>objective</t>
   </si>
   <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>ps_switch</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>dor</t>
-  </si>
-  <si>
-    <t>fu</t>
-  </si>
-  <si>
-    <t>rwd</t>
-  </si>
-  <si>
-    <t>condmarg</t>
-  </si>
-  <si>
-    <t>Duration of response and also time to response are standard secondary endpoints in clinical studies in oncology. There are different approaches for analysis and often the clinical question to be addressed remains unclear. We contextualize the different approaches using the estimand framework and illustrate those with case studies. Finally we intend to present recommendations for analyses targeting relevant clinical questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We would like to bring the complex concept and methods about conditional and marginal treatment effect into a simplified and interpretable way. Potential topics including adjusted or unadjusted analysis; stratified vs unstratified hazard ratio; collapsibility and subgroup; p-values; etc. We will give clinically relevant opinions and recommendations based on our interpretation, and illustrate the idea using some case studies. </t>
-  </si>
-  <si>
-    <t>Follow up is very heterogeneously quantified in oncological clinical trials. Given the importance assigned to "amount of follow up" in general the objective of this task force is to describe various ways how follow up is typically quantified, study its properties and issue recommendations how to report follow up and how to interpret it.</t>
-  </si>
-  <si>
-    <t>Our goal is to understand various efficacy estimands of biomarker subgroups and its relationship to the overall population for binary and time-to-event endpoints. For continuous outcomes with difference of means as efficacy estimand, Least Square estimates from the full model containing treatment, subgroup, and its interaction term enable an unbiased estimation of efficacy for the overall population by linearly combining estimands of the two subgroups. Following the same process for binary or time-to-event efficacy estimands such as hazard ratio or odds ratio, although guaranteeing logical inference in appearance, does not lead to the correct efficacy estimand of the overall population. In fact, the correct HR (or OR) may be outside of the interval of subgroup HRs (or ORs) leading to illogical interpretations. The task force will investigate which efficacy measures are logic respecting on the population level and make recommendations on how to analyze real clinical trial data so that analysis results based on these efficacy measures will always be logical for either prognostic or predictive biomarkers.</t>
-  </si>
-  <si>
-    <t>t2e_sub</t>
-  </si>
-  <si>
-    <t>Illustrate the value and promote the use of target trial framework and estimand framework for design of comparisons including real-world data. The frameworks allows to clarify the definition of the causal question of interest ensuring alignment between the research objective and analysis. Its application in submission documents would facilitate regulatory review in a transparent and structured way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In oncology Phase 1a (dose-escalation) and Phase 1b (expansion cohort) studies, the designs are complex because the objectives are often multiple and ambitious. Defining estimands and the associated estimators in this setting can be difficult.
-In this WG, we intend to implement the ICH-E9 addendum and to reflect on the challenges it presents in early clinical development studies. Such challenges may include: (1) absence of control group (2) varying dose, but also dosing schedule across treatment arms (a.k.a. cohorts) (3) presence of anti-drug antibody (ADA) (4) prophylactic treatment or co-medication for toxicity mitigation (e.g. using steroids) (5) compassionate within-patient dose escalation. The taskforce will give clinically relevant opinions and recommendations based on our analysis and interpretation of the selected case studies. Contact to other task forces will be sought based on need.
-</t>
-  </si>
-  <si>
-    <t>early_dev_estimand_nexus</t>
-  </si>
-  <si>
-    <t>This task force performs periodical literature reviews of principal stratum applied to treatment switching, focusing on the analysis of overall survival. It aims to evaluate and improve existing methods, develop new principal stratification models for treatment switching, e.g. through simulation studies to compare operating characteristics, relaxation/stress test of key assumptions, prior selection for Bayesian analysis, and software for implementation. 
-Communication of results is intended to happen through publication(s) for peer-reviewed journals, presentations/round-table discussions/trainings at various forums (JSM, DIA, FDA workshop, ISCB, …).</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>Key issues of interest for this task force are: (1) Estimands for safety-focused studies (2) Safety estimands within the context of a conventional efficacy study (3) Implementing estimands principles in general safety reporting and analysis (including what to change and what to leave in place) (4) Implementing estimands principles in associated CRF and data standards. The mission of the group is up for discussion and I would appreciate your interest. 
-The envisioned output for the group would be white papers, one focused on study design and statistical methodological considerations in safety estimands, and one focused on more nuts-and-bolts implementation issues including recommendations for general safety reporting, visit schedule and withdrawal criteria issues, monitoring,  CRF considerations, data considerations and changes in data standards etc. In addition, the TF plans to involve itself in WG discussions with and recommendations to regulatory authorities, conference presentations, outreach webinars and workshops, etc.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>objective_old</t>
-  </si>
-  <si>
-    <t>This task force has submitted a paper entitled _Quantification of Follow-up Time in Oncology Clinical Trials with a Time-to-Event Endpoint: Asking the Right Questions_, find the link on the [publications](publications.html) page. All questions initially asked have been discussed in this paper and the task force is therefore currently inactive.</t>
-  </si>
-  <si>
-    <t>Develop basic introductory material that can be used by all study team members to educate themselves on Oncology Estimands. Translate key messages from the working group activities to a non-statistical audience, targeting especially clinical functions.
-Open to new members from regulatory agencies and academia.</t>
-  </si>
-  <si>
-    <t>Subteam that looked into treatment switching. Published paper, see [publications](publications.html).</t>
-  </si>
-  <si>
-    <t>Subteam that looked into how to merge causal inference with the ICH E9 addendum. Published a paper on the principal stratum strategy, see [publications](publications.html).</t>
-  </si>
-  <si>
-    <t>Subteam that looked into how to embed censoring into the ICH E9 addendum framework. Two papers currently under review, see [publications](publications.html).</t>
-  </si>
-  <si>
-    <t>Subteam that looked into estimands for solid tumors. Published paper, see [publications](publications.html).</t>
-  </si>
-  <si>
-    <t>Subteam that looked into estimands in hematology indications. Published paper, see [publications](publications.html).</t>
-  </si>
-  <si>
-    <t>switching</t>
-  </si>
-  <si>
-    <t>causal</t>
-  </si>
-  <si>
-    <t>censoring</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>hematology</t>
-  </si>
-  <si>
-    <t>Clarify what questions are we answering with typical analyses conducted on HRQoL endpoints in regulatory clinical trials. We are going to consider longitudinal mixed models and time to event analyses initially; "mapping" potential common questions into the estimand framework. The task force is also going to dig into the question of "how to handle death" in HRQoL analyses. We are keen to build collaborative approaches with statisticians and others active in this topic area, such as SISAQoL and ISOQoL working groups. 
-[2021 summary on backfitting MMRM](talks/other/PRO TF (2021) Backfitting MMRM.pdf)
-This taskforce has concluded its work. As a spin-off a new EFSPI SIG is to be initiated in early 2024. If you are interested to join please reach out to [Rachael Lawrance](mailto:rachael.lawrance@adelphivalues.com).</t>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>LateStage</t>
+  </si>
+  <si>
+    <t>NonInferiority</t>
+  </si>
+  <si>
+    <t>subteams</t>
+  </si>
+  <si>
+    <t>EarlyPhase</t>
+  </si>
+  <si>
+    <t>IntercurrentEvent</t>
+  </si>
+  <si>
+    <t>* Establish an EIWG teams site for efficient communication and collaborative working
+* Homepage with working group updates and estimand resources, hosted and managed by the EIWG 
+* PSI session on estimand thinking and statistical leadership</t>
+  </si>
+  <si>
+    <t>* Publication on the reporting of estimands and intercurrent events in clinical study reports
+* Successful collaboration with NIC on the reporting of estimands on “Clinicaltrials.gov”</t>
+  </si>
+  <si>
+    <t>* Publication</t>
+  </si>
+  <si>
+    <t>* Publication on treatment policy estimation</t>
+  </si>
+  <si>
+    <t>* PSI session on estimands in non-inferiority trials
+* First paper published
+* Paper initiated on case studies illustrating challenges discussed in first paper</t>
+  </si>
+  <si>
+    <t>* Planning on creating estimand webinars on neuroscience, early development and HTA</t>
+  </si>
+  <si>
+    <t>* Continue to identify areas of uncertainty around how the different intercurrent event strategies may be interpreted
+* Identify areas of uncertainty around whether certain events meet the definition of an intercurrent event
+* Identify and begin to implement appropriate strategies to reduce this uncertainty, e.g. through training materials, a possible publication, or feeding back to the ICH E9(R1) creators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Develop a case study for implementing estimands for a dose-ranging (Ph2b) study
+* Develop a case study with focus on clinical pharmacology studies in pregnant and breast-feeding women
+* Input into guidance around implementing estimands for patient-reported outcomes in early phase trials 
+* Explore estimands for concentration modeling for PD effect (e.g., concentration-QTc). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -177,14 +130,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -195,6 +155,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B9" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B7C46663-E00D-4705-B667-5C71EF2D208A}" name="subteams" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A3B71FBA-B7BA-40FC-B396-D279C48A7CA4}" name="objective" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,205 +430,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E695E429-6F9A-4762-90F8-5148CDE404B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
 * Paper initiated on case studies illustrating challenges discussed in first paper</t>
   </si>
   <si>
-    <t>* Planning on creating estimand webinars on neuroscience, early development and HTA</t>
-  </si>
-  <si>
     <t>* Continue to identify areas of uncertainty around how the different intercurrent event strategies may be interpreted
 * Identify areas of uncertainty around whether certain events meet the definition of an intercurrent event
 * Identify and begin to implement appropriate strategies to reduce this uncertainty, e.g. through training materials, a possible publication, or feeding back to the ICH E9(R1) creators</t>
@@ -84,6 +81,10 @@
 * Develop a case study with focus on clinical pharmacology studies in pregnant and breast-feeding women
 * Input into guidance around implementing estimands for patient-reported outcomes in early phase trials 
 * Explore estimands for concentration modeling for PD effect (e.g., concentration-QTc). </t>
+  </si>
+  <si>
+    <t>* To enhance understanding of the estimand framework and its practical implementation across various roles in clinical trials, including clinicians, regulators, investigators, academics, members of ethics committees, health technology assessors and statisticians.
+* To utilize case studies as a means to illustrate real-world applications of the estimand framework, thereby fostering a deeper comprehension of its relevance and impact on clinical trial design, conduct, and interpretation.</t>
   </si>
 </sst>
 </file>
@@ -136,10 +137,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -158,11 +159,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B9" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B7C46663-E00D-4705-B667-5C71EF2D208A}" name="subteams" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A3B71FBA-B7BA-40FC-B396-D279C48A7CA4}" name="objective" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B7C46663-E00D-4705-B667-5C71EF2D208A}" name="subteams" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A3B71FBA-B7BA-40FC-B396-D279C48A7CA4}" name="objective" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -434,7 +435,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,12 +492,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -504,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -512,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E695E429-6F9A-4762-90F8-5148CDE404B9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E4DFF0-4DB1-41FA-AF3C-50FA881A0C37}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,6 @@
 * PSI session on estimand thinking and statistical leadership</t>
   </si>
   <si>
-    <t>* Publication on the reporting of estimands and intercurrent events in clinical study reports
-* Successful collaboration with NIC on the reporting of estimands on “Clinicaltrials.gov”</t>
-  </si>
-  <si>
-    <t>* Publication</t>
-  </si>
-  <si>
     <t>* Publication on treatment policy estimation</t>
   </si>
   <si>
@@ -85,6 +78,21 @@
   <si>
     <t>* To enhance understanding of the estimand framework and its practical implementation across various roles in clinical trials, including clinicians, regulators, investigators, academics, members of ethics committees, health technology assessors and statisticians.
 * To utilize case studies as a means to illustrate real-world applications of the estimand framework, thereby fostering a deeper comprehension of its relevance and impact on clinical trial design, conduct, and interpretation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The late phase estimands implementation Working group brings together health economists, epidemiologists and statisticians to support the estimand journey and provide a cross-industry forum to
+    * Discuss estimand issues emerging in an HTA context, including HTA agencies' awareness/adoption of Addendum and estimands framework
+    * Engage in scientific discussion on the value and benefits of the estimands framework in health technology assessments 
+    * Explore the scope of estimand framework in the context of comparative effectiveness RWE studies 
+    * Discuss issues emerging through application
+* With the aim to promote broad understanding and awareness of the framework among statisticians, clinicians, health care providers, epidemiologist, health economist and health technology assessment agencies. </t>
+  </si>
+  <si>
+    <t>* Paper on the reporting of estimands and intercurrent events in clinical study reports, submitted in Nov 2024, published
+* Continue collaboration with NIH on the reporting of estimands on “Clinicaltrials.gov”:
+    * Achieve agreement with NIH based on our proposals
+    * Provide further clarification as needed and support creation of examples 
+    * Issue a white paper on best practices</t>
   </si>
 </sst>
 </file>
@@ -156,6 +164,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,20 +472,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -489,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -497,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -505,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -513,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E4DFF0-4DB1-41FA-AF3C-50FA881A0C37}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB88830-AE1E-41E3-8F4E-8D057C62F2E1}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>objective</t>
   </si>
@@ -93,6 +93,14 @@
     * Achieve agreement with NIH based on our proposals
     * Provide further clarification as needed and support creation of examples 
     * Issue a white paper on best practices</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>* Regional regulatory and guideline expertise
+* Expansion of network and outreach
+* Case study and practical application development</t>
   </si>
 </sst>
 </file>
@@ -166,13 +174,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B9" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B10" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B7C46663-E00D-4705-B667-5C71EF2D208A}" name="subteams" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A3B71FBA-B7BA-40FC-B396-D279C48A7CA4}" name="objective" dataDxfId="0"/>
@@ -444,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,6 +532,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB88830-AE1E-41E3-8F4E-8D057C62F2E1}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608F3E9A-E1D7-433D-A56D-4751953342E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>objective</t>
   </si>
@@ -101,6 +101,13 @@
     <t>* Regional regulatory and guideline expertise
 * Expansion of network and outreach
 * Case study and practical application development</t>
+  </si>
+  <si>
+    <t>StudyDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Investigate the impact of estimands on trial design.
+* Develop approaches and guidance for aligning the design of a trial to its estimands. </t>
   </si>
 </sst>
 </file>
@@ -174,9 +181,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B10" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B11" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B11" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B7C46663-E00D-4705-B667-5C71EF2D208A}" name="subteams" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A3B71FBA-B7BA-40FC-B396-D279C48A7CA4}" name="objective" dataDxfId="0"/>
@@ -448,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,6 +551,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608F3E9A-E1D7-433D-A56D-4751953342E9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FAC40B8-1563-47B4-840E-07984F56B280}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     * Issue a white paper on best practices</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>* Regional regulatory and guideline expertise
 * Expansion of network and outreach
 * Case study and practical application development</t>
@@ -108,6 +105,9 @@
   <si>
     <t xml:space="preserve">* Investigate the impact of estimands on trial design.
 * Develop approaches and guidance for aligning the design of a trial to its estimands. </t>
+  </si>
+  <si>
+    <t>USandCanada</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,18 +545,18 @@
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FAC40B8-1563-47B4-840E-07984F56B280}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32627A2D-7D98-4494-AE89-E101078B77AF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
 * PSI session on estimand thinking and statistical leadership</t>
   </si>
   <si>
-    <t>* Publication on treatment policy estimation</t>
-  </si>
-  <si>
     <t>* PSI session on estimands in non-inferiority trials
 * First paper published
 * Paper initiated on case studies illustrating challenges discussed in first paper</t>
@@ -107,7 +104,11 @@
 * Develop approaches and guidance for aligning the design of a trial to its estimands. </t>
   </si>
   <si>
-    <t>USandCanada</t>
+    <t>* Publication on treatment policy estimation
+* Publication on estimation for continuous endpoints where an intercurrent event is handled using the composite strategy</t>
+  </si>
+  <si>
+    <t>NorthAmerica</t>
   </si>
 </sst>
 </file>
@@ -179,10 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -500,15 +497,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -516,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -524,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -532,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -540,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -548,15 +545,15 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32627A2D-7D98-4494-AE89-E101078B77AF}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6073F385-3A04-46B0-9F16-CDBDE3233E5D}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>objective</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>NorthAmerica</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>* Contribute China-specific regulatory and clinical practice perspectives
+* Develop and share practical case studies and implementation examples
+* Promote cross-functional understanding and adoption of the estimand framework
+* Collaborate on harmonized methodological and operational recommendations</t>
   </si>
 </sst>
 </file>
@@ -183,8 +192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B11" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B11" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}" name="Tabelle1" displayName="Tabelle1" ref="A1:B12" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B12" xr:uid="{C729CC4F-0171-44B4-98D9-3794236DA206}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B7C46663-E00D-4705-B667-5C71EF2D208A}" name="subteams" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A3B71FBA-B7BA-40FC-B396-D279C48A7CA4}" name="objective" dataDxfId="0"/>
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,6 +565,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6073F385-3A04-46B0-9F16-CDBDE3233E5D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C40C9DDC-1DCA-4AF0-965C-DCDDAB365C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF5EB5B-D0ED-4718-82BE-E446E6DE557E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,14 +77,6 @@
 * To utilize case studies as a means to illustrate real-world applications of the estimand framework, thereby fostering a deeper comprehension of its relevance and impact on clinical trial design, conduct, and interpretation.</t>
   </si>
   <si>
-    <t xml:space="preserve">* The late phase estimands implementation Working group brings together health economists, epidemiologists and statisticians to support the estimand journey and provide a cross-industry forum to
-    * Discuss estimand issues emerging in an HTA context, including HTA agencies' awareness/adoption of Addendum and estimands framework
-    * Engage in scientific discussion on the value and benefits of the estimands framework in health technology assessments 
-    * Explore the scope of estimand framework in the context of comparative effectiveness RWE studies 
-    * Discuss issues emerging through application
-* With the aim to promote broad understanding and awareness of the framework among statisticians, clinicians, health care providers, epidemiologist, health economist and health technology assessment agencies. </t>
-  </si>
-  <si>
     <t>* Paper on the reporting of estimands and intercurrent events in clinical study reports, submitted in Nov 2024, published
 * Continue collaboration with NIH on the reporting of estimands on “Clinicaltrials.gov”:
     * Achieve agreement with NIH based on our proposals
@@ -118,6 +110,19 @@
 * Develop and share practical case studies and implementation examples
 * Promote cross-functional understanding and adoption of the estimand framework
 * Collaborate on harmonized methodological and operational recommendations</t>
+  </si>
+  <si>
+    <t>* The working group will advance understanding and application of ICH E9 (R1) estimand attributes throughout the clinical development lifecycle and real-world evidence (RWE) generation, ensuring effective integration into research and development (R&amp;D) planning, health technology assessments (HTA) including joint clinical assessments (JCA), and regulatory frameworks. 
+* Establish Estimands as Foundation for R&amp;D Planning and Causal Inference:
+    * Assess current utilization of estimands in regulatory and HTA processes and identify improvement opportunities.
+    * Link Estimands to Causal Inference Framework: Emphasize that well-defined estimands articulate the causal question of interest, guiding the selection of appropriate study designs, statistical methods, and target trial emulation (TTE) approaches for decision making. 
+    * Clarify strategic goals for RWD use in R&amp;D: When, why, and how should RWD be incorporated to achieve robust clinical development programs?
+    * Address transportability and generalizability between clinical trials and RWD settings, ensuring estimands reflect realistic treatment effects across diverse populations and care settings. 
+    * Embed estimand thinking in all phases of drug development, from early clinical planning through late-stage studies.
+* Foster Scientific Dialogue and Cross-Industry Collaboration:
+    * Facilitate collaboration among industry stakeholders, regulators, and HTA bodies to share insights and experiences on estimands in clinical development, RWE studies, and value assessments.
+    * Establish standardized guidance (e.g., white paper) for applying estimands—emphasizing principles over prescriptive approaches—for uniform adoption by researchers, statisticians, and regulatory bodies.
+    * Encourage ongoing scientific discussions on the value and implications of estimands, causal inference, target trial emulation, and the strategic integration of RWD across the R&amp;D lifecycle.</t>
   </si>
 </sst>
 </file>
@@ -189,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,12 +502,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="261" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -506,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -514,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -551,26 +560,26 @@
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
